--- a/PCAcombined/PCAcombined_predicted_factors_matrix_9.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.09921411239996689</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.07295863263608166</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04655474364311222</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02023145372214578</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.005868189439961296</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.03163757288437827</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.05699572249592808</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.08188320610929459</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1062585835303697</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.1300948344716456</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.1533760596816561</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1760946763250447</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.1982491678263676</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2198423487826642</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2408800637541449</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.261370230969025</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2813221501989838</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.3007460078962062</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.319652526987152</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.3380527213284863</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.3559577251042525</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.3733786754359131</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3903266325126325</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.4068125260150854</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.4228471198619608</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.4384409896559769</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.4536045088841236</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.468347841117752</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.4826809362983051</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.4966135297841763</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.5101551432460768</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.5233150867849126</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.5361024618445658</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5485261646290039</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.5605948898271973</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.5723171345137418</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.5837012021369646</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.59475520653609</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.6054870759491205</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.6159045569866155</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.6260152185555409</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6358264557233985</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6453454935167262</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.06582693132297744</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.04767263876089482</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03692178433217515</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03103045891960417</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02832112608797419</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02769203925645134</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02841802906800476</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03001996322203214</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03218008482014422</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03468702255721588</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0373998854835222</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04022467863358384</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.04309872490932051</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04598032511800682</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.04884186649314306</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.05166521369637408</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.05443861738013597</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05715463554025965</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.05980873291192498</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.06239833550580979</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06492219135130138</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.06737993765440331</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.06977180734407218</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.07209842989517672</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0743606960106865</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.07655966561997489</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.07869650529813983</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.08077244569446246</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08278875258619385</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.08474670722192611</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08664759300594513</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.08849268651568086</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0902832514831748</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09202053480583174</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09370576394743668</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.09534014529199632</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.09692486315059914</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09846107921553375</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.09994993232030001</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1013925384082903</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1027899906431988</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1041433596150422</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.1054536936100035</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2244427589597638</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.1510302627968284</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1010611985597622</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.06711029829665562</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.04407751073362774</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.02847794120669273</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.01793566471906258</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01083264824578093</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.006067691247147374</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.002891620429547657</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.0007948649835048123</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0005691362350748268</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.001436072386115324</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.00196623213169685</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.002268628237489135</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002417401970411894</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002462977081277261</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.002439643957125478</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002370716890793704</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002272041511662883</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002154380562222523</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.002025037023527004</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.001888958607480802</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.001749489492531823</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.001608882077132385</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.001468645436207626</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.001329782636303422</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.001192952389630615</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.001058579188897567</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0009269283537075701</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0007981571738583985</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0006723497658457605</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0005495408298245535</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0004297318407608781</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.000312902081623411</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0001990161595856453</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.802912387418228e-05</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-2.011005208090604e-05</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.0001254561041223376</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.0002280658717598971</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.0003279972115344271</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.0004253082642936001</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.0005200569637693164</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.08223578902765821</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.05679823853085056</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03968204964169635</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02796267204239098</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01981348208256753</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01405672300872063</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.009917749965714187</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.006880386587716205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.004597626673985069</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.002834732668745651</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.001432192348285183</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0002812420044597091</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0006924782095639455</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.001539921623218432</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.002296075382624363</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.00298501460002185</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.003623345773333584</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.004222557922234737</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.004790630494418001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.005333134278853729</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.005853985832718113</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.006355964791484422</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.006841068747200406</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.007310756776194727</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007766116594442536</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.008207979312609104</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.008636998229897025</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.009053702944924755</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.009458536523455905</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.009851881035538461</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.01023407510896189</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01060542600258617</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01096621791825079</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01131671773104271</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01165717894775473</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01198784444932828</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01230894839869401</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.0126207175757218</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01292337231881405</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01321712719629991</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01350219149210846</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01377876956363401</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01404706111152136</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.06365754040947523</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.04145978254414401</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02683220618050979</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01708467715539487</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01056298581357195</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.006197564173731082</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.003281191265013498</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.001341366520053937</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-6.072242185058054e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0007745783829502266</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.001308916347540238</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.001639921844826534</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.001833687473643009</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.00193499448041722</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.001974204236570532</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.001971910898476936</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.001942087111816313</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.001894213327220241</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.001834720508380337</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001767968419955371</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001696909453957271</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001623539346512069</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001549203363451618</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001474804401399845</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001400944486860201</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001328021027503444</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001256292308724054</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001185922077237009</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.00111700989822858</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001049611830966935</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0009837545134055358</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0009194447582053819</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0008566760909515649</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0007954332046157216</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0007356949936327111</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0006774366195108307</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0006206309159643888</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0005652493435168852</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0005112626367502187</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0004586412418545848</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0004073556111175664</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0003573763998177804</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0003086745965697182</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.0426702341690031</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.02857670793941515</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01905744527878258</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01266546235908603</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.008387677327835198</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005535468096235938</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003644637658776192</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002402660629739761</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001598906967871826</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001091190077811734</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0007833728894649601</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0006103643710187701</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0005280450584286854</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0005064856914233616</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0005253722089552548</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.000570913264516734</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0006337464806155493</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.000707519017769543</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0007879242504376024</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0008720474149379483</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.000957920812587642</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.001044221280527907</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001130064326436523</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.00121486398513272</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001298237384230222</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001379939738311335</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.00145982006054852</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001537790984602363</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001613808199519923</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001687856435314496</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001759939913379014</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.001830075840549978</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001898289978315057</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001964613626960896</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.00202908157457424</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0020917307039828</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.002152599048331887</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.002211725152550924</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002269147643334342</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.002324904941224057</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002379035069493214</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.002431575528921709</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.002482563217394391</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.007457246617934951</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.004177249216701678</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00231975086117601</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001234690253499491</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0005773576787952971</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001633128841592124</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.0001083311471955904</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0002942507153520211</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0004271757372448684</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0005265183130900568</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0006040807094187248</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.0006672006251275804</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.0007205304490171697</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0007670702463254351</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.000808782639566817</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0008469674453909571</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0008824948017965529</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.0009159529467163253</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.0009477433811714483</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.0009781429546343247</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.001007344799343377</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.001035485545476793</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.001062663533039335</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.001088951059729093</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.001114402648950491</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.001139060646948176</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.001162959019827363</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001186125933423668</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001208585508289655</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001230359014696859</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001251465687057026</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.001271923279488354</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.001291748445249342</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.001310956996298816</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.001329564081272298</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.001347584307934662</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.001365031827859022</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.001381920395404903</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.001398263409219187</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.001414073941855932</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.001429364761303793</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.001444148347024184</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.001458436902239864</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.0280416412067372</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01684589469077824</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.009657544322207019</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00499648124546919</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001962153539694513</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1.044388027826755e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.001283403216524821</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.002092324228415361</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.002592188069943271</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.002885752347325238</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.00304153952891714</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.003105432446086988</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.003108245924727247</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.003070718341729704</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.003006825668735496</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.002925993424247517</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.002834578917478384</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.002736867510162479</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.002635743782467984</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.002533144493348867</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.002430364701239566</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.002328264872121049</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.002227411119823051</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.002128170231777631</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.00203077409168323</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.001935363372415383</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.001842017178164278</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.001750773157912592</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.001661641154214571</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.001574612464486643</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.001489666123756058</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.001406773164918393</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.001325899505476119</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.001247007901393845</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.001170059267346627</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.001095013566647824</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.001021830408970826</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.0009504694497134215</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.0008808906547751275</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.0008130544740753397</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.0007469219532648566</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.0006824548036278534</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.0006196154437654322</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -601,6 +1735,132 @@
       </c>
       <c r="E10" t="n">
         <v>0.007298563199743749</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.005269968068198769</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.003725285738878479</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002626994582429068</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001880752355961378</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001393045104140278</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.001088206834015943</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0009099286867092622</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0008180083292735975</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0007843800988968322</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0007897023324026076</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0008207495136843251</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0008685238764330593</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0009269257925138872</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.000991832214900516</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.001060463846093127</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.001130953034039748</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.001202049775420332</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.001272922136944537</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.001343020966358595</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.001411988265458672</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.00147959516657983</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.00154569995956457</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.00161021969036914</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.00167311094284753</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.001734356833501808</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.001793958209795237</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.001851927692908113</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.001908285645682743</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.001963057443957555</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.002016271630604924</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.00206795866756428</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.002118150093154804</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.002166877954128969</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.00221417442404575</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.002260071548025981</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.002304601073243304</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.002347794337583252</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.002389682197753454</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.00243029498414324</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.00246966247380012</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.002507813875657857</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002544777824039262</v>
       </c>
     </row>
   </sheetData>
